--- a/ResultadoEleicoesDistritos/BEJA_ALJUSTREL.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_ALJUSTREL.xlsx
@@ -597,28 +597,28 @@
         <v>2328</v>
       </c>
       <c r="H2" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I2" t="n">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="J2" t="n">
-        <v>954</v>
+        <v>979</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -627,34 +627,34 @@
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="T2" t="n">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="U2" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>1497</v>
+        <v>1482</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1480</v>
+        <v>1508</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
